--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.60945286641631</v>
+        <v>8.231909</v>
       </c>
       <c r="N2">
-        <v>4.60945286641631</v>
+        <v>24.695727</v>
       </c>
       <c r="O2">
-        <v>0.5796949046835937</v>
+        <v>0.6819745823584403</v>
       </c>
       <c r="P2">
-        <v>0.5796949046835937</v>
+        <v>0.6819745823584403</v>
       </c>
       <c r="Q2">
-        <v>87.56418831178246</v>
+        <v>179.8653073350513</v>
       </c>
       <c r="R2">
-        <v>87.56418831178246</v>
+        <v>1618.787766015462</v>
       </c>
       <c r="S2">
-        <v>0.02587545150638423</v>
+        <v>0.03423525286539057</v>
       </c>
       <c r="T2">
-        <v>0.02587545150638423</v>
+        <v>0.03423525286539057</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.39120325478279</v>
+        <v>1.472366666666667</v>
       </c>
       <c r="N3">
-        <v>1.39120325478279</v>
+        <v>4.4171</v>
       </c>
       <c r="O3">
-        <v>0.1749607733387715</v>
+        <v>0.1219785887548671</v>
       </c>
       <c r="P3">
-        <v>0.1749607733387715</v>
+        <v>0.121978588754867</v>
       </c>
       <c r="Q3">
-        <v>26.42820901138217</v>
+        <v>32.17087105917778</v>
       </c>
       <c r="R3">
-        <v>26.42820901138217</v>
+        <v>289.5378395326</v>
       </c>
       <c r="S3">
-        <v>0.007809606345458346</v>
+        <v>0.006123348198322596</v>
       </c>
       <c r="T3">
-        <v>0.007809606345458346</v>
+        <v>0.006123348198322594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.95085911409906</v>
+        <v>2.366422</v>
       </c>
       <c r="N4">
-        <v>1.95085911409906</v>
+        <v>7.099266000000001</v>
       </c>
       <c r="O4">
-        <v>0.2453443219776348</v>
+        <v>0.1960468288866927</v>
       </c>
       <c r="P4">
-        <v>0.2453443219776348</v>
+        <v>0.1960468288866926</v>
       </c>
       <c r="Q4">
-        <v>37.05979858940135</v>
+        <v>51.70577326771068</v>
       </c>
       <c r="R4">
-        <v>37.05979858940135</v>
+        <v>465.351959409396</v>
       </c>
       <c r="S4">
-        <v>0.01095126945986192</v>
+        <v>0.009841587845082265</v>
       </c>
       <c r="T4">
-        <v>0.01095126945986192</v>
+        <v>0.009841587845082263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.60945286641631</v>
+        <v>8.231909</v>
       </c>
       <c r="N5">
-        <v>4.60945286641631</v>
+        <v>24.695727</v>
       </c>
       <c r="O5">
-        <v>0.5796949046835937</v>
+        <v>0.6819745823584403</v>
       </c>
       <c r="P5">
-        <v>0.5796949046835937</v>
+        <v>0.6819745823584403</v>
       </c>
       <c r="Q5">
-        <v>1751.380367029936</v>
+        <v>3169.7168960092</v>
       </c>
       <c r="R5">
-        <v>1751.380367029936</v>
+        <v>28527.4520640828</v>
       </c>
       <c r="S5">
-        <v>0.517537575920391</v>
+        <v>0.6033184556510012</v>
       </c>
       <c r="T5">
-        <v>0.517537575920391</v>
+        <v>0.6033184556510012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.39120325478279</v>
+        <v>1.472366666666667</v>
       </c>
       <c r="N6">
-        <v>1.39120325478279</v>
+        <v>4.4171</v>
       </c>
       <c r="O6">
-        <v>0.1749607733387715</v>
+        <v>0.1219785887548671</v>
       </c>
       <c r="P6">
-        <v>0.1749607733387715</v>
+        <v>0.121978588754867</v>
       </c>
       <c r="Q6">
-        <v>528.5933358223141</v>
+        <v>566.9384222364556</v>
       </c>
       <c r="R6">
-        <v>528.5933358223141</v>
+        <v>5102.4458001281</v>
       </c>
       <c r="S6">
-        <v>0.1562007424652588</v>
+        <v>0.1079100830056972</v>
       </c>
       <c r="T6">
-        <v>0.1562007424652588</v>
+        <v>0.1079100830056972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.95085911409906</v>
+        <v>2.366422</v>
       </c>
       <c r="N7">
-        <v>1.95085911409906</v>
+        <v>7.099266000000001</v>
       </c>
       <c r="O7">
-        <v>0.2453443219776348</v>
+        <v>0.1960468288866927</v>
       </c>
       <c r="P7">
-        <v>0.2453443219776348</v>
+        <v>0.1960468288866926</v>
       </c>
       <c r="Q7">
-        <v>741.2368561501034</v>
+        <v>911.1966369511475</v>
       </c>
       <c r="R7">
-        <v>741.2368561501034</v>
+        <v>8200.769732560328</v>
       </c>
       <c r="S7">
-        <v>0.219037470635423</v>
+        <v>0.1734355987728428</v>
       </c>
       <c r="T7">
-        <v>0.219037470635423</v>
+        <v>0.1734355987728428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.60945286641631</v>
+        <v>8.231909</v>
       </c>
       <c r="N8">
-        <v>4.60945286641631</v>
+        <v>24.695727</v>
       </c>
       <c r="O8">
-        <v>0.5796949046835937</v>
+        <v>0.6819745823584403</v>
       </c>
       <c r="P8">
-        <v>0.5796949046835937</v>
+        <v>0.6819745823584403</v>
       </c>
       <c r="Q8">
-        <v>122.7802008261448</v>
+        <v>233.378563234411</v>
       </c>
       <c r="R8">
-        <v>122.7802008261448</v>
+        <v>2100.407069109699</v>
       </c>
       <c r="S8">
-        <v>0.03628187725681844</v>
+        <v>0.04442087384204853</v>
       </c>
       <c r="T8">
-        <v>0.03628187725681844</v>
+        <v>0.04442087384204853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.39120325478279</v>
+        <v>1.472366666666667</v>
       </c>
       <c r="N9">
-        <v>1.39120325478279</v>
+        <v>4.4171</v>
       </c>
       <c r="O9">
-        <v>0.1749607733387715</v>
+        <v>0.1219785887548671</v>
       </c>
       <c r="P9">
-        <v>0.1749607733387715</v>
+        <v>0.121978588754867</v>
       </c>
       <c r="Q9">
-        <v>37.05693928594563</v>
+        <v>41.74230026363333</v>
       </c>
       <c r="R9">
-        <v>37.05693928594563</v>
+        <v>375.6807023727</v>
       </c>
       <c r="S9">
-        <v>0.01095042452805433</v>
+        <v>0.007945157550847261</v>
       </c>
       <c r="T9">
-        <v>0.01095042452805433</v>
+        <v>0.00794515755084726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.95085911409906</v>
+        <v>2.366422</v>
       </c>
       <c r="N10">
-        <v>1.95085911409906</v>
+        <v>7.099266000000001</v>
       </c>
       <c r="O10">
-        <v>0.2453443219776348</v>
+        <v>0.1960468288866927</v>
       </c>
       <c r="P10">
-        <v>0.2453443219776348</v>
+        <v>0.1960468288866926</v>
       </c>
       <c r="Q10">
-        <v>51.96427444952299</v>
+        <v>67.089197216138</v>
       </c>
       <c r="R10">
-        <v>51.96427444952299</v>
+        <v>603.802774945242</v>
       </c>
       <c r="S10">
-        <v>0.0153555818823498</v>
+        <v>0.01276964226876757</v>
       </c>
       <c r="T10">
-        <v>0.0153555818823498</v>
+        <v>0.01276964226876757</v>
       </c>
     </row>
   </sheetData>
